--- a/src/test/resources/TestData/HomePageTestData.xlsx
+++ b/src/test/resources/TestData/HomePageTestData.xlsx
@@ -5,48 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-70\Downloads\template-selenium-main\template-selenium-main\POM-Framework\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-70\Downloads\template-selenium-main\template-selenium-main\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B6FF11-E702-4B27-B3C9-5DAE281C26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA7A68-7DC5-46E9-AD71-30666492E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="984" windowWidth="20784" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="10" r:id="rId1"/>
+    <sheet name="banner" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TestCase</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Verify the credentials for login page</t>
-  </si>
-  <si>
-    <t>vaibhav@test.com</t>
-  </si>
-  <si>
-    <t>Vaibhav@2023</t>
   </si>
   <si>
     <t>execution</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the logo is present </t>
   </si>
 </sst>
 </file>
@@ -390,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254E331-6480-475F-948D-16C9711478F0}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -405,35 +390,20 @@
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/HomePageTestData.xlsx
+++ b/src/test/resources/TestData/HomePageTestData.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-70\Downloads\template-selenium-main\template-selenium-main\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA7A68-7DC5-46E9-AD71-30666492E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75699E-D06E-4CFA-8C76-D35C472AC0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="984" windowWidth="20784" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="984" windowWidth="20784" windowHeight="11256" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="banner" sheetId="10" r:id="rId1"/>
+    <sheet name="logo" sheetId="10" r:id="rId1"/>
+    <sheet name="firstbanner" sheetId="11" r:id="rId2"/>
+    <sheet name="trending" sheetId="12" r:id="rId3"/>
+    <sheet name="introduction" sheetId="13" r:id="rId4"/>
+    <sheet name="levelUp" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>TestCase</t>
   </si>
@@ -32,6 +36,57 @@
   </si>
   <si>
     <t xml:space="preserve">Verify the logo is present </t>
+  </si>
+  <si>
+    <t>expUrl</t>
+  </si>
+  <si>
+    <t>Verify the URL when user clicks on 'Shop Now' button</t>
+  </si>
+  <si>
+    <t>collections/shop-all-skincare</t>
+  </si>
+  <si>
+    <t>Verify the 'Shop the trending section'</t>
+  </si>
+  <si>
+    <t>expText</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>Shop What's Trending</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>Verify the 'Introducing' banner</t>
+  </si>
+  <si>
+    <t>Verify the "Level up" banner</t>
+  </si>
+  <si>
+    <t>Level Up Your Moisturizer</t>
+  </si>
+  <si>
+    <t>products/new-triple-firming-neck-cream-with-microdipeptide229</t>
+  </si>
+  <si>
+    <t>products/hyaluronic-luminous-lift</t>
+  </si>
+  <si>
+    <t>products/high-potency-cream</t>
+  </si>
+  <si>
+    <t>products/rebound-sculpting-cream</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -377,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1254E331-6480-475F-948D-16C9711478F0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -399,11 +454,247 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF2B149-945D-4F08-A359-53D3671AF6E2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA1340A-1849-43C0-AB70-FD3701E2D492}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2872568C-0A67-4515-B08E-2C56F4C0D3BB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CDA2DB-5F48-4F45-8647-2E3A68AB88B0}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/HomePageTestData.xlsx
+++ b/src/test/resources/TestData/HomePageTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-70\Downloads\template-selenium-main\template-selenium-main\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75699E-D06E-4CFA-8C76-D35C472AC0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33901FAB-163D-4779-9F2B-BFF6B7C3437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="984" windowWidth="20784" windowHeight="11256" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logo" sheetId="10" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="trending" sheetId="12" r:id="rId3"/>
     <sheet name="introduction" sheetId="13" r:id="rId4"/>
     <sheet name="levelUp" sheetId="14" r:id="rId5"/>
+    <sheet name="winter" sheetId="15" r:id="rId6"/>
+    <sheet name="awardWinner" sheetId="16" r:id="rId7"/>
+    <sheet name="specialOffer" sheetId="17" r:id="rId8"/>
+    <sheet name="glow" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>TestCase</t>
   </si>
@@ -83,22 +87,62 @@
     <t>products/rebound-sculpting-cream</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Verify the Save for Winter banner</t>
+  </si>
+  <si>
+    <t>expURL</t>
+  </si>
+  <si>
+    <t>blogs/learn-about-skincare/what-causes-dry-skin</t>
+  </si>
+  <si>
+    <t>Verify the first Product</t>
+  </si>
+  <si>
+    <t>Verify the Second Product</t>
+  </si>
+  <si>
+    <t>Verify the Third Product</t>
+  </si>
+  <si>
+    <t>Award Winners</t>
+  </si>
+  <si>
+    <t>Verify Special offer section</t>
+  </si>
+  <si>
+    <t>exptext</t>
+  </si>
+  <si>
+    <t>Special Offers</t>
+  </si>
+  <si>
+    <t>Verify 'We love to see you glow' section</t>
+  </si>
+  <si>
+    <t>We Love To See You Glow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -457,8 +502,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -512,7 +557,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -541,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -560,7 +605,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -585,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -601,7 +646,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A6" sqref="A6:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -695,6 +740,218 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC95787-DE0A-4433-9341-738510B5F462}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE333A-9831-46F4-8B07-9C2D48DD4A63}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F57C56-F469-4D9C-A329-D37BC2832E85}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62948BC6-2E26-4C6D-84B3-29A2D3A33EC9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/HomePageTestData.xlsx
+++ b/src/test/resources/TestData/HomePageTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJI-GOA-70\Downloads\template-selenium-main\template-selenium-main\Neostrata\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadee\git\Neostrata\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75699E-D06E-4CFA-8C76-D35C472AC0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA2830-A3AC-4847-A8EC-2A33156E4425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="984" windowWidth="20784" windowHeight="11256" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logo" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>TestCase</t>
   </si>
@@ -80,13 +80,10 @@
     <t>products/high-potency-cream</t>
   </si>
   <si>
-    <t>products/rebound-sculpting-cream</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>products/hydra-filling-cream-2</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -458,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +468,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -496,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -512,7 +509,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -541,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -560,7 +557,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -585,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -601,7 +598,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -694,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
